--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2650654.670170732</v>
+        <v>2646350.330360863</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.2792495146817833</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>28.24679925476093</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.55309051112796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>121.7378277337882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>203.2649646051305</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.484528893292094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>28.33708868093411</v>
       </c>
       <c r="Y6" t="n">
-        <v>195.4389224694578</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>121.3132845196752</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>326.454883204867</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465025</v>
+        <v>65.76608425465008</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>36.84492794682071</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775161851</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>18.47335059662979</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.008330115198</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>168.8368078100038</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.57516893522976</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.9022120075012</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
-        <v>66.43694060668919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>73.2234186962849</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>20.43112068613282</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.21841339139939</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>175.0948681033051</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>106.8299898147636</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>147.7027769252548</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>40.37234576591481</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>129.1078928223853</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>127.0078463455645</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
         <v>41.00642392276842</v>
@@ -4330,22 +4330,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>574.0438072739746</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>307.6661507067967</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3840804899464</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899464</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.6316683732355</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>167.6316683732355</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
         <v>167.6316683732355</v>
@@ -4409,52 +4409,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304912</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263895</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>691.074259448092</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>462.9384134849055</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>227.7863052531628</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>227.7863052531628</v>
+        <v>1026.32339954667</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7863052531628</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.6316683732355</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.6273447026937</v>
+        <v>313.0007960894296</v>
       </c>
       <c r="C4" t="n">
-        <v>313.6273447026937</v>
+        <v>144.0646131615227</v>
       </c>
       <c r="D4" t="n">
-        <v>313.6273447026937</v>
+        <v>144.0646131615227</v>
       </c>
       <c r="E4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987218</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>700.5939555987218</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>700.5939555987218</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5939555987218</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X4" t="n">
-        <v>495.2758095329334</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.2758095329334</v>
+        <v>313.0007960894296</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.4777567984221</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>157.4777567984221</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>157.4777567984221</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991311</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946887</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298167</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>432.4256445709455</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>432.4256445709455</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>432.4256445709455</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>166.0479880037676</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>157.4777567984221</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.5812722902314</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>121.5812722902314</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902314</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4646,52 +4646,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302307</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267545</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293595</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>808.383790249628</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2316820178853</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>318.9943252896837</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>318.9943252896837</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>121.5812722902314</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.0607779425552</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>331.1245950146483</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
         <v>331.1245950146483</v>
@@ -4728,19 +4728,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745504</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>500.0607779425552</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>500.0607779425552</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0607779425552</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>500.0607779425552</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.0607779425552</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1255.83402597629</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="C8" t="n">
-        <v>926.0816186986467</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0816186986467</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2933661004024</v>
+        <v>1248.407986524948</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>837.4220817353407</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>421.7158597270079</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467177</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607436</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045951</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209589</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661171</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.83001576214</v>
+        <v>2435.830015762144</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858413</v>
+        <v>2398.612916825962</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383983</v>
+        <v>2398.612916825962</v>
       </c>
       <c r="V8" t="n">
-        <v>1642.433866040412</v>
+        <v>2398.612916825962</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.433866040412</v>
+        <v>2398.612916825962</v>
       </c>
       <c r="X8" t="n">
-        <v>1642.433866040412</v>
+        <v>2025.147158564882</v>
       </c>
       <c r="Y8" t="n">
-        <v>1642.433866040412</v>
+        <v>1635.00782658907</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010818</v>
+        <v>929.5097208010859</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199548</v>
+        <v>755.0566915199589</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587036</v>
+        <v>606.1222818587077</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532481</v>
+        <v>446.8848268532522</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801331</v>
+        <v>300.3502688801372</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763212</v>
+        <v>163.6480708763253</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>69.87120530446167</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637189</v>
+        <v>113.4887579637193</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148184</v>
+        <v>298.085754314819</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482999</v>
+        <v>931.8250374996599</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062226016</v>
+        <v>1294.891505973962</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.772608695171</v>
+        <v>1866.42319337203</v>
       </c>
       <c r="O9" t="n">
-        <v>1674.659418682561</v>
+        <v>2198.310003359421</v>
       </c>
       <c r="P9" t="n">
-        <v>2236.972918065723</v>
+        <v>2445.345361789045</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.166831477959</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251702</v>
+        <v>2424.826280251707</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685351</v>
+        <v>2230.816477685355</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751581</v>
+        <v>2002.726321751585</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519838</v>
+        <v>1767.574213519842</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791637</v>
+        <v>1513.336856791641</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586104</v>
+        <v>1305.485356586108</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.72505782115</v>
+        <v>1097.725057821154</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.0095627355764</v>
+        <v>665.8987926804023</v>
       </c>
       <c r="C10" t="n">
-        <v>325.0733798076695</v>
+        <v>496.9626097524954</v>
       </c>
       <c r="D10" t="n">
-        <v>325.0733798076695</v>
+        <v>346.8459703401596</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0733798076695</v>
+        <v>346.8459703401596</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0733798076695</v>
+        <v>199.9560228422493</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473603</v>
+        <v>199.9560228422493</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473603</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380163</v>
+        <v>76.63468308380186</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.2500215676575</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368932</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990404</v>
+        <v>823.8653899904052</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="S10" t="n">
-        <v>1477.17487263373</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="T10" t="n">
-        <v>1254.193571108135</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="U10" t="n">
-        <v>965.0751976027768</v>
+        <v>1346.650771972008</v>
       </c>
       <c r="V10" t="n">
-        <v>965.0751976027768</v>
+        <v>1346.650771972008</v>
       </c>
       <c r="W10" t="n">
-        <v>675.6580275658162</v>
+        <v>1057.233601935047</v>
       </c>
       <c r="X10" t="n">
-        <v>675.6580275658162</v>
+        <v>886.6913718239324</v>
       </c>
       <c r="Y10" t="n">
-        <v>675.6580275658162</v>
+        <v>665.8987926804023</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5772922261132</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6411092982063</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>665.5244698858705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>517.6113763034774</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>370.721428805567</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.644273983533</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
         <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,31 +5509,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2902967703794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1366.593344833982</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1138.603793935964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5782,7 +5782,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1030.918378293891</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>861.9821953659841</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>711.8655559536484</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>563.9524623712553</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>417.0625148733449</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>249.8664155882248</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>1433.359422267661</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>1212.566843124131</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2757.723669558405</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>2607.607030146069</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>2607.607030146069</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>2607.607030146069</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2440.410930860949</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>335.7491137930459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,13 +6694,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
@@ -6709,43 +6709,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2272.00829921169</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2052.406834234631</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2052.406834234631</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,19 +6955,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,31 +7171,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>989.3306680894883</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>820.3944851615814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7432,16 +7432,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,7 +7660,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7836,22 +7836,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594376</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084431</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>186.3103888136346</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.38611118977589</v>
+        <v>20.98618304348486</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.92976817443611</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W19" t="n">
-        <v>220.0860577299018</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.07129414993899</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>119.8635921600911</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>66.30572490086945</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>50.61478728573204</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S34" t="n">
-        <v>74.196296186881</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>138.8202214113362</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>108.2431272522975</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>36.41624546988359</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156785</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
@@ -26322,40 +26322,40 @@
         <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580798</v>
+        <v>390680.0076580811</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606925</v>
+        <v>507909.2320606915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191139</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101791</v>
+        <v>95270.23779101818</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>248543.2666865468</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662836</v>
+        <v>136854.4547662832</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756637</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.200356756633</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756635</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756635</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567903</v>
+        <v>92902.86757567912</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334845.6345905795</v>
+        <v>-334845.6345905793</v>
       </c>
       <c r="C6" t="n">
-        <v>345242.3460006135</v>
+        <v>345242.3460006136</v>
       </c>
       <c r="D6" t="n">
-        <v>36396.0858913844</v>
+        <v>36396.08589138338</v>
       </c>
       <c r="E6" t="n">
-        <v>27348.31751064844</v>
+        <v>27000.93825629291</v>
       </c>
       <c r="F6" t="n">
-        <v>535257.5495713413</v>
+        <v>534910.1703169846</v>
       </c>
       <c r="G6" t="n">
-        <v>535257.5495713415</v>
+        <v>534910.1703169848</v>
       </c>
       <c r="H6" t="n">
-        <v>535257.5495713409</v>
+        <v>534910.1703169844</v>
       </c>
       <c r="I6" t="n">
-        <v>535257.5495713414</v>
+        <v>534910.1703169841</v>
       </c>
       <c r="J6" t="n">
-        <v>466258.3951522272</v>
+        <v>465911.0158978702</v>
       </c>
       <c r="K6" t="n">
-        <v>535257.5495713411</v>
+        <v>534910.1703169841</v>
       </c>
       <c r="L6" t="n">
-        <v>439987.3117803236</v>
+        <v>439639.932525966</v>
       </c>
       <c r="M6" t="n">
-        <v>402539.5738758725</v>
+        <v>402192.1946215155</v>
       </c>
       <c r="N6" t="n">
-        <v>535257.5495713414</v>
+        <v>534910.1703169839</v>
       </c>
       <c r="O6" t="n">
-        <v>535257.5495713414</v>
+        <v>534910.1703169841</v>
       </c>
       <c r="P6" t="n">
-        <v>535257.5495713413</v>
+        <v>534910.1703169839</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.519713256482332e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>3.519713256482332e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627835</v>
+        <v>933.7024595627846</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856967</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,25 +26965,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933052</v>
+        <v>319.6474457933064</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788903</v>
+        <v>434.2730407788894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841907</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841907</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841907</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27432,7 +27432,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27441,10 +27441,10 @@
         <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.4518511637872</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>223.4481839061587</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>146.1296052661764</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>24.69613491278099</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>22.44469078390668</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>135.2380307610665</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>377.7534097627615</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>177.4358965225434</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.2437733078466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>164.9453459830023</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.81800856614058</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>169.8196351178691</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164526539</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164522461</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>37.66552013518645</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>56.87284757903339</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>9.848122317634986e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>9.848122317634986e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885559</v>
+        <v>3.753577726885563</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546674</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.5802175972539</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763199</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354933</v>
+        <v>592.342717135494</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359944</v>
+        <v>659.0954050359952</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.7602577525089</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307897</v>
+        <v>632.4356192307905</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983024</v>
+        <v>539.769169098303</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542132</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140487</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.300286218150845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436933</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.14683309026283</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502174</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571288</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617175</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152217</v>
+        <v>522.3360580152223</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.8354464519092</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947596</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366406</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.09502415413395</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415889</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490125</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.931664102313</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307428</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942755</v>
+        <v>7.194100917942764</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.09183958618650349</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.9915131655318</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206137</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>388.514013929771</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175684</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>316.0872899694776</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,37 +34210,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>362.5355639238086</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34792,13 +34792,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.87976539609076</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089026</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.5343130705676</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313388</v>
+        <v>257.3793117313393</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655061</v>
+        <v>356.5763021655068</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087217</v>
+        <v>428.7491718087225</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.347194155918</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809103</v>
+        <v>402.3374078091038</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430329</v>
+        <v>308.5361733430335</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797637</v>
+        <v>183.0384768797642</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234306</v>
+        <v>20.20013907234335</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127597</v>
+        <v>62.90656844127619</v>
       </c>
       <c r="K9" t="n">
-        <v>186.461612475858</v>
+        <v>186.4616124758584</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396986</v>
+        <v>366.7338065396992</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318885</v>
+        <v>577.3047347455237</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074642</v>
+        <v>335.2392020074648</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203661</v>
+        <v>249.5306650804294</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961979</v>
+        <v>116.3812106603491</v>
       </c>
       <c r="R9" t="n">
-        <v>0.399928146290874</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873323</v>
+        <v>25.68023017873337</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228593</v>
+        <v>54.8270281422861</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394704</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>322.3705304098921</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>245.9177694853266</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>322.3705304098922</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902957</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>173.4910455250332</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396427</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2646350.330360863</v>
+        <v>2648110.860663649</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>15.62903715749115</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.306619546897</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992222</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527761</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121987</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>165.7489211622449</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>28.24679925476093</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>121.7378277337882</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888202</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>199.963113411797</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D5" t="n">
-        <v>219.4450108596164</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>28.33708868093411</v>
+        <v>155.2537761190406</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>216.9755163892662</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>140.7577763047164</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465008</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>36.84492794682071</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662979</v>
+        <v>20.24979976115243</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256402</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.34571932179957</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>168.8368078100038</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8170508184376</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,10 +1660,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.0280580960838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>65.81340893423616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>88.92406475355357</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.9273329298508</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3034,13 +3034,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>46.35517081455633</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>81.27859867330056</v>
       </c>
       <c r="D43" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.7225503044907</v>
+        <v>419.7330060626407</v>
       </c>
       <c r="C2" t="n">
-        <v>255.7225503044907</v>
+        <v>419.7330060626407</v>
       </c>
       <c r="D2" t="n">
-        <v>255.7225503044907</v>
+        <v>419.7330060626407</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>419.7330060626407</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>403.9460998429527</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012054</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052544</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030614</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.546376199133</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.514968335843</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601765</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006027</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006027</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946912</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298192</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298192</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388466</v>
+        <v>419.7330060626407</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>419.7330060626407</v>
       </c>
       <c r="X2" t="n">
-        <v>522.1002068716687</v>
+        <v>419.7330060626407</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>419.7330060626407</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012054</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012054</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012054</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012054</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012054</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012054</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012054</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957491</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298719</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.126243926396</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290014</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557314</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891352</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006027</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212817</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166569</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="W3" t="n">
-        <v>1026.32339954667</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="X3" t="n">
-        <v>818.4718993411373</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>512.6998863625668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.0007960894296</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C4" t="n">
-        <v>144.0646131615227</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D4" t="n">
-        <v>144.0646131615227</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434481</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434481</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434481</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434481</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434481</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012054</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287948</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551012</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.736887837534</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227052</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075563</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816805</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006027</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407097</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407097</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>724.0800490005107</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>724.0800490005107</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>724.0800490005107</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329598</v>
+        <v>724.0800490005107</v>
       </c>
       <c r="X4" t="n">
-        <v>533.7933752329598</v>
+        <v>724.0800490005107</v>
       </c>
       <c r="Y4" t="n">
-        <v>313.0007960894296</v>
+        <v>503.2874698569806</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>294.4202677165021</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>205.2577368622517</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>835.6883317340389</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>607.6987808360216</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>386.9062016924914</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.407986524948</v>
+        <v>1783.823588302846</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.407986524948</v>
+        <v>1414.861071362435</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>1056.595372755684</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>670.8071201574398</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353407</v>
+        <v>259.8212153678323</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270079</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467177</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607436</v>
+        <v>442.1757437607412</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045951</v>
+        <v>795.1862829045913</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209589</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940602</v>
+        <v>2053.905718940592</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550205</v>
+        <v>2359.356530550194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661171</v>
+        <v>2540.56462266116</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762144</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="T8" t="n">
-        <v>2398.612916825962</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="U8" t="n">
-        <v>2398.612916825962</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="V8" t="n">
-        <v>2398.612916825962</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="W8" t="n">
-        <v>2398.612916825962</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="X8" t="n">
-        <v>2025.147158564882</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.00782658907</v>
+        <v>2170.423428366968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010859</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199589</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587077</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532522</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801372</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763253</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530446167</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685582</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637193</v>
+        <v>238.3188829507233</v>
       </c>
       <c r="K9" t="n">
-        <v>298.085754314819</v>
+        <v>422.9158793018221</v>
       </c>
       <c r="L9" t="n">
-        <v>931.8250374996599</v>
+        <v>908.295807566662</v>
       </c>
       <c r="M9" t="n">
-        <v>1294.891505973962</v>
+        <v>1271.362276040963</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.42319337203</v>
+        <v>1658.446678513531</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359421</v>
+        <v>1990.33348850092</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789045</v>
+        <v>2237.368846930544</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251707</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685355</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751585</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519842</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791641</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586108</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821154</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.8987926804023</v>
+        <v>665.0671186274017</v>
       </c>
       <c r="C10" t="n">
-        <v>496.9626097524954</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>346.8459703401596</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8459703401596</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9560228422493</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422493</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380186</v>
+        <v>76.63468308380131</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676575</v>
+        <v>248.2500215676564</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368932</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904052</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616503</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477366</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771972008</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="V10" t="n">
-        <v>1346.650771972008</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>1057.233601935047</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>886.6913718239324</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.8987926804023</v>
+        <v>846.7155834576414</v>
       </c>
     </row>
     <row r="11">
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,28 +5059,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
@@ -5193,10 +5193,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770323</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>634.3345878491255</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5430,10 +5430,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,34 +5755,34 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2404.986360578632</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2185.384895601574</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,10 +6241,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168632</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6612,22 +6612,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,13 +6788,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,34 +7074,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7198,28 +7198,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7314,31 +7314,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7399,25 +7399,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7429,19 +7429,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7642,13 +7642,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7675,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761139</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418152</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.3216690912728</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8151,13 +8151,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658838</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084431</v>
+        <v>192.7716614458171</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>186.3103888136346</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348486</v>
+        <v>20.9861830434852</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>32.89260457059959</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5874149221285734</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>186.3242343895918</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>129.6605885985412</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>179.3544845744808</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>65.54986409393071</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>85.96822242532727</v>
       </c>
       <c r="D43" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156785</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="13">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914268</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520047</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911938</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580811</v>
+        <v>390680.0076580779</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606915</v>
+        <v>507909.2320606944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191139</v>
+        <v>68999.15441911422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101818</v>
+        <v>95270.23779101728</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865466</v>
       </c>
       <c r="C4" t="n">
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662832</v>
+        <v>136854.4547662841</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756637</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.200356756653</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.200356756633</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756632</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756628</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756635</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756635</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426624</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567912</v>
+        <v>92902.86757567889</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334845.6345905793</v>
+        <v>-334845.6345905801</v>
       </c>
       <c r="C6" t="n">
-        <v>345242.3460006136</v>
+        <v>345242.3460006142</v>
       </c>
       <c r="D6" t="n">
-        <v>36396.08589138338</v>
+        <v>36396.08589138588</v>
       </c>
       <c r="E6" t="n">
-        <v>27000.93825629291</v>
+        <v>27313.57958521106</v>
       </c>
       <c r="F6" t="n">
-        <v>534910.1703169846</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="G6" t="n">
-        <v>534910.1703169848</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="H6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.811645906</v>
       </c>
       <c r="I6" t="n">
-        <v>534910.1703169841</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="J6" t="n">
-        <v>465911.0158978702</v>
+        <v>466223.657226791</v>
       </c>
       <c r="K6" t="n">
-        <v>534910.1703169841</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="L6" t="n">
-        <v>439639.932525966</v>
+        <v>439952.573854888</v>
       </c>
       <c r="M6" t="n">
-        <v>402192.1946215155</v>
+        <v>402504.8359504362</v>
       </c>
       <c r="N6" t="n">
-        <v>534910.1703169839</v>
+        <v>535222.8116459055</v>
       </c>
       <c r="O6" t="n">
-        <v>534910.1703169841</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="P6" t="n">
-        <v>534910.1703169839</v>
+        <v>535222.8116459054</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.519713256482332e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694788</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627846</v>
+        <v>933.702459562782</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856978</v>
+        <v>640.1406900856949</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694788</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933064</v>
+        <v>319.6474457933036</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788894</v>
+        <v>434.273040778892</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>-2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841916</v>
+        <v>376.4268100841887</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841916</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841916</v>
+        <v>376.4268100841887</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.3614049543567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>391.2470085842203</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442033</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>314.1936326292679</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>64.0383784686282</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150556</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>29.09206642263189</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>223.4481839061587</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.69613491278099</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>204.7191642435937</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>23.2512324677688</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D5" t="n">
-        <v>135.2380307610665</v>
+        <v>129.2799018570678</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>177.4358965225434</v>
+        <v>50.51920908443688</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>69.54748194732477</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984469</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>270.7913834835331</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>169.8196351178691</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164522461</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164533716</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.7919240020284</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.87284757903339</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>9.848122317634986e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.848122317634986e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425039</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649918</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350889</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388636</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016255</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167921</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459296</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986836</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658383</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269076</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.5770185656233</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465207</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702313</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>10.80613396090811</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.197485029554003</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787181</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>12.75612396528672</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990952</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919897</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458307</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043659</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293993</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542728</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480714</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>168.598652082518</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736552</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163907</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.32374110994482</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202093</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912175</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582798</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244978</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779075</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225236</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440337</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840511</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734696</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817682</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555597</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791913</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350559</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337853</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715654</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339142</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885563</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546678</v>
+        <v>38.44132789546668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972539</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763199</v>
+        <v>477.4691627763185</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135494</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359952</v>
+        <v>659.0954050359933</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525089</v>
+        <v>669.760257752507</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307905</v>
+        <v>632.4356192307887</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098303</v>
+        <v>539.7691690983015</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542137</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864755</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140487</v>
+        <v>85.53465245140463</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944156</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150845</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436933</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026283</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502174</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571288</v>
+        <v>436.0654741571276</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617175</v>
+        <v>508.8678404617161</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152223</v>
+        <v>522.3360580152208</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519092</v>
+        <v>477.8354464519079</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947596</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366406</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413395</v>
+        <v>8.095024154133927</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415889</v>
+        <v>50.63422518415874</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490128</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102313</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046259</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307428</v>
+        <v>75.70643221307407</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658783</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942764</v>
+        <v>7.194100917942744</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650349</v>
+        <v>0.09183958618650324</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,25 +33499,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175684</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217729</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664495</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468049</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186569</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020927</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441516</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716381</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117386</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763067</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659565</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823476</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.175724346066</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.6550983098284</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337412</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877693</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966407</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043499</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458917</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526981</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958092</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204532</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827496911</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705676</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313393</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655068</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087225</v>
+        <v>428.7491718087206</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155918</v>
+        <v>440.347194155916</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091038</v>
+        <v>402.3374078091019</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430335</v>
+        <v>308.536173343032</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797642</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234335</v>
+        <v>20.20013907234269</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127619</v>
+        <v>188.9976037816845</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758584</v>
+        <v>186.4616124758575</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1406900856978</v>
+        <v>490.2827558230705</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396992</v>
+        <v>366.7338065396978</v>
       </c>
       <c r="N9" t="n">
-        <v>577.3047347455237</v>
+        <v>390.9943459318876</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074648</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804294</v>
+        <v>249.5306650804283</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603491</v>
+        <v>326.4584983961975</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873337</v>
+        <v>25.68023017873304</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093289</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425464</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186655</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422861</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396427</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
